--- a/PCB/Flight Systems Bill of Materials.xlsx
+++ b/PCB/Flight Systems Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackson's PC\Documents\github\UTAT_flightsystems\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C6FDFC-C282-47F8-8742-BAE186E78AC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3CD192-BB08-4C3E-8E85-D65845673E73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -808,29 +808,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -841,24 +846,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1209,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1242,12 +1242,12 @@
       <c r="J2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1265,14 +1265,14 @@
       <c r="E3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="31">
         <v>5.5</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="19">
+      <c r="G3" s="29"/>
+      <c r="H3" s="30">
         <v>21.91</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="11" t="s">
         <v>28</v>
       </c>
@@ -1293,14 +1293,14 @@
       <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="31">
         <v>25.6</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19">
+      <c r="G4" s="29"/>
+      <c r="H4" s="30">
         <v>93.1</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="10" t="s">
         <v>27</v>
       </c>
@@ -1321,14 +1321,14 @@
       <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="31">
         <v>25.6</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="19">
+      <c r="G5" s="29"/>
+      <c r="H5" s="30">
         <v>93.1</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="12" t="s">
         <v>27</v>
       </c>
@@ -1349,14 +1349,14 @@
       <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="31">
         <v>0.99</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="19">
+      <c r="G6" s="29"/>
+      <c r="H6" s="30">
         <v>18.399999999999999</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="11" t="s">
         <v>46</v>
       </c>
@@ -1377,14 +1377,14 @@
       <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="31">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19">
+      <c r="G7" s="29"/>
+      <c r="H7" s="30">
         <v>29.99</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="13" t="s">
         <v>52</v>
       </c>
@@ -1405,14 +1405,14 @@
       <c r="E8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19">
+      <c r="G8" s="29"/>
+      <c r="H8" s="30">
         <v>4.95</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="14" t="s">
         <v>56</v>
       </c>
@@ -1433,14 +1433,14 @@
       <c r="E9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="31">
         <v>0.5</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19">
+      <c r="G9" s="29"/>
+      <c r="H9" s="30">
         <v>22.59</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1459,14 +1459,14 @@
       <c r="E10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="31">
         <v>51.76</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="29"/>
+      <c r="H10" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="12" t="s">
         <v>69</v>
       </c>
@@ -1487,14 +1487,14 @@
       <c r="E11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="31">
         <v>13</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19">
+      <c r="G11" s="29"/>
+      <c r="H11" s="30">
         <v>38.450000000000003</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="14" t="s">
         <v>74</v>
       </c>
@@ -1515,14 +1515,14 @@
       <c r="E12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="31">
         <v>5</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19">
+      <c r="G12" s="29"/>
+      <c r="H12" s="30">
         <v>7.5</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="14" t="s">
         <v>83</v>
       </c>
@@ -1543,14 +1543,14 @@
       <c r="E13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="31">
         <v>0</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="19">
+      <c r="G13" s="29"/>
+      <c r="H13" s="30">
         <v>5.35</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="11" t="s">
         <v>89</v>
       </c>
@@ -1571,14 +1571,14 @@
       <c r="E14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="31">
         <v>47</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="16" t="s">
         <v>101</v>
       </c>
@@ -1599,15 +1599,15 @@
       <c r="E15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="31">
         <v>217</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="19">
+      <c r="G15" s="29"/>
+      <c r="H15" s="30">
         <f>1.3*31.99</f>
         <v>41.586999999999996</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="14" t="s">
         <v>109</v>
       </c>
@@ -1628,14 +1628,14 @@
       <c r="E16" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="31">
         <v>45</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21" t="s">
+      <c r="G16" s="29"/>
+      <c r="H16" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1654,14 +1654,14 @@
       <c r="E17" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="31">
         <v>45</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1680,18 +1680,18 @@
       <c r="E18" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="31">
         <v>6.2</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="19">
+      <c r="G18" s="29"/>
+      <c r="H18" s="30">
         <v>5.97</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="26" t="s">
+      <c r="I18" s="29"/>
+      <c r="J18" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="20"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -1709,18 +1709,18 @@
       <c r="E19" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="31">
         <v>6.2</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19">
+      <c r="G19" s="29"/>
+      <c r="H19" s="30">
         <v>5.97</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="26" t="s">
+      <c r="I19" s="29"/>
+      <c r="J19" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -1738,18 +1738,18 @@
       <c r="E20" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="31">
         <v>6.2</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19">
+      <c r="G20" s="29"/>
+      <c r="H20" s="30">
         <v>5.97</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="26" t="s">
+      <c r="I20" s="29"/>
+      <c r="J20" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="24"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -1767,18 +1767,18 @@
       <c r="E21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="31">
         <v>0.03</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="19">
+      <c r="G21" s="29"/>
+      <c r="H21" s="30">
         <v>0.48</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="23" t="s">
+      <c r="I21" s="29"/>
+      <c r="J21" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="K21" s="24"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -1796,18 +1796,18 @@
       <c r="E22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="31">
         <v>0.03</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="19">
+      <c r="G22" s="29"/>
+      <c r="H22" s="30">
         <v>0.52</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="23" t="s">
+      <c r="I22" s="29"/>
+      <c r="J22" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="K22" s="20"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -1825,18 +1825,18 @@
       <c r="E23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="31">
         <v>0.03</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19">
+      <c r="G23" s="29"/>
+      <c r="H23" s="30">
         <v>1.36</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="23" t="s">
+      <c r="I23" s="29"/>
+      <c r="J23" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="K23" s="20"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -1854,18 +1854,18 @@
       <c r="E24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="31">
         <v>0.03</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="19">
+      <c r="G24" s="29"/>
+      <c r="H24" s="30">
         <v>1.22</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="25" t="s">
+      <c r="I24" s="29"/>
+      <c r="J24" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="K24" s="20"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -1883,18 +1883,18 @@
       <c r="E25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="31">
         <v>0.03</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19">
+      <c r="G25" s="29"/>
+      <c r="H25" s="30">
         <v>0.48</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="23" t="s">
+      <c r="I25" s="29"/>
+      <c r="J25" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="K25" s="24"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -1912,18 +1912,18 @@
       <c r="E26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="31">
         <v>0.09</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="19">
+      <c r="G26" s="29"/>
+      <c r="H26" s="30">
         <v>0.38</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="23" t="s">
+      <c r="I26" s="29"/>
+      <c r="J26" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="24"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -1941,18 +1941,18 @@
       <c r="E27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="31">
         <v>1.3</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="19">
+      <c r="G27" s="29"/>
+      <c r="H27" s="30">
         <v>1.64</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="23" t="s">
+      <c r="I27" s="29"/>
+      <c r="J27" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="24"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
@@ -1970,14 +1970,14 @@
       <c r="E28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="31">
         <v>0.01</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="19">
+      <c r="G28" s="29"/>
+      <c r="H28" s="30">
         <v>0.54</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="29"/>
       <c r="J28" s="18" t="s">
         <v>148</v>
       </c>
@@ -1998,14 +1998,14 @@
       <c r="E29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="31">
         <v>0.01</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="19">
+      <c r="G29" s="29"/>
+      <c r="H29" s="30">
         <v>0.54</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="29"/>
       <c r="J29" s="15" t="s">
         <v>151</v>
       </c>
@@ -2026,14 +2026,14 @@
       <c r="E30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="31">
         <v>0.01</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="19">
+      <c r="G30" s="29"/>
+      <c r="H30" s="30">
         <v>0.54</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="15" t="s">
         <v>154</v>
       </c>
@@ -2054,14 +2054,14 @@
       <c r="E31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="31">
         <v>0.01</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="19">
+      <c r="G31" s="29"/>
+      <c r="H31" s="30">
         <v>0.54</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="15" t="s">
         <v>151</v>
       </c>
@@ -2082,14 +2082,14 @@
       <c r="E32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="31">
         <v>0.01</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="19">
+      <c r="G32" s="29"/>
+      <c r="H32" s="30">
         <v>0.54</v>
       </c>
-      <c r="I32" s="20"/>
+      <c r="I32" s="29"/>
       <c r="J32" s="15" t="s">
         <v>154</v>
       </c>
@@ -2110,18 +2110,18 @@
       <c r="E33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="31">
         <v>0.12</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="19">
+      <c r="G33" s="29"/>
+      <c r="H33" s="30">
         <v>1.03</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="27" t="s">
+      <c r="I33" s="29"/>
+      <c r="J33" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="K33" s="20"/>
+      <c r="K33" s="29"/>
     </row>
     <row r="34" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -2139,18 +2139,18 @@
       <c r="E34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="31">
         <v>1.4</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="19">
+      <c r="G34" s="29"/>
+      <c r="H34" s="30">
         <v>9.93</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="26" t="s">
+      <c r="I34" s="29"/>
+      <c r="J34" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="20"/>
+      <c r="K34" s="29"/>
     </row>
     <row r="35" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -2168,18 +2168,18 @@
       <c r="E35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="31">
         <v>0.6</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="19">
+      <c r="G35" s="29"/>
+      <c r="H35" s="30">
         <v>9.5299999999999994</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="26" t="s">
+      <c r="I35" s="29"/>
+      <c r="J35" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="20"/>
+      <c r="K35" s="29"/>
     </row>
     <row r="36" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -2197,20 +2197,86 @@
       <c r="E36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="31">
         <v>0.01</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="19">
+      <c r="G36" s="29"/>
+      <c r="H36" s="30">
         <v>0.88</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="29"/>
       <c r="J36" s="15" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F36:G36"/>
@@ -2227,72 +2293,6 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2355,7 +2355,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2388,12 +2388,12 @@
       <c r="J2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2411,19 +2411,19 @@
       <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21">
+      <c r="F3" s="31"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="32">
         <v>18.62</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2441,14 +2441,14 @@
       <c r="E4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="31">
         <v>25.6</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="10" t="s">
         <v>27</v>
       </c>
@@ -2487,14 +2487,14 @@
       <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="31">
         <v>25.6</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="12" t="s">
         <v>27</v>
       </c>
@@ -2533,21 +2533,21 @@
       <c r="E6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21">
+      <c r="F6" s="31"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="32">
         <v>12.86</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="27" t="s">
+      <c r="I6" s="29"/>
+      <c r="J6" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -2565,19 +2565,19 @@
       <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21">
+      <c r="F7" s="31"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="32">
         <v>18.82</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -2595,21 +2595,21 @@
       <c r="E8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21">
+      <c r="F8" s="31"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="32">
         <v>4.46</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="27" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -2625,19 +2625,19 @@
         <v>62</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19" t="s">
+      <c r="F9" s="31"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -2655,19 +2655,19 @@
       <c r="E10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="31">
         <v>51.76</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -2685,21 +2685,21 @@
       <c r="E11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="31">
         <v>13</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21">
+      <c r="G11" s="29"/>
+      <c r="H11" s="32">
         <v>38.450000000000003</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -2717,21 +2717,21 @@
       <c r="E12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="31">
         <v>5</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -2749,21 +2749,21 @@
       <c r="E13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="31">
         <v>0</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -2781,21 +2781,21 @@
       <c r="E14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="31">
         <v>47</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -2813,21 +2813,21 @@
       <c r="E15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="31">
         <v>217</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="19" t="s">
+      <c r="G15" s="29"/>
+      <c r="H15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -2845,21 +2845,21 @@
       <c r="E16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21">
+      <c r="F16" s="31"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="32">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="23" t="s">
+      <c r="I16" s="29"/>
+      <c r="J16" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -2877,21 +2877,21 @@
       <c r="E17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21">
+      <c r="F17" s="31"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="32">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="23" t="s">
+      <c r="I17" s="29"/>
+      <c r="J17" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -2909,21 +2909,21 @@
       <c r="E18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21">
+      <c r="F18" s="31"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="32">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="23" t="s">
+      <c r="I18" s="29"/>
+      <c r="J18" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="24"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -2941,23 +2941,23 @@
       <c r="E19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="31">
         <v>0.12</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21">
+      <c r="G19" s="29"/>
+      <c r="H19" s="32">
         <v>1.03</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="27" t="s">
+      <c r="I19" s="29"/>
+      <c r="J19" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -2975,23 +2975,23 @@
       <c r="E20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="31">
         <v>1.4</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21">
+      <c r="G20" s="29"/>
+      <c r="H20" s="32">
         <v>9.93</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="26" t="s">
+      <c r="I20" s="29"/>
+      <c r="J20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -3009,23 +3009,23 @@
       <c r="E21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="31">
         <v>0.6</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21">
+      <c r="G21" s="29"/>
+      <c r="H21" s="32">
         <v>9.5299999999999994</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="26" t="s">
+      <c r="I21" s="29"/>
+      <c r="J21" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -3043,10 +3043,10 @@
       <c r="E22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="20"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="29"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
@@ -3071,23 +3071,23 @@
       <c r="E23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="31">
         <v>0.01</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21">
+      <c r="G23" s="29"/>
+      <c r="H23" s="32">
         <v>0.88</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="27" t="s">
+      <c r="I23" s="29"/>
+      <c r="J23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
     </row>
     <row r="24" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -3105,12 +3105,12 @@
       <c r="E24" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="20"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
@@ -3128,12 +3128,12 @@
       <c r="E25" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="20"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:16" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
@@ -3149,103 +3149,56 @@
       <c r="E26" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21">
+      <c r="F26" s="31"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="32">
         <v>1.65</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="29"/>
       <c r="J26" s="15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="F26:G26"/>
@@ -3262,14 +3215,61 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -3302,13 +3302,13 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="19.26953125" customWidth="1"/>
     <col min="4" max="4" width="38.6328125" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" customWidth="1"/>
@@ -3327,512 +3327,518 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="24">
         <f>SUM(F3:G36)</f>
         <v>3.5799999999999996</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2" s="26">
         <f>SUM(I3:J328)</f>
         <v>62.53</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="43">
         <v>1.4</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="33">
+      <c r="G3" s="44"/>
+      <c r="H3" s="21">
         <v>2</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="45">
         <f>9.93*H3</f>
         <v>19.86</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="26" t="s">
+      <c r="J3" s="46"/>
+      <c r="K3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="39">
         <v>0.6</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="33">
+      <c r="G4" s="40"/>
+      <c r="H4" s="21">
         <v>2</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="41">
         <f>H4*9.53</f>
         <v>19.059999999999999</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="26" t="s">
+      <c r="J4" s="42"/>
+      <c r="K4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="39">
         <v>1.3</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="33">
+      <c r="G5" s="40"/>
+      <c r="H5" s="21">
         <v>5</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="41">
         <f>H5*1.64</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="23" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="24"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="39">
         <v>0.09</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="33">
+      <c r="G6" s="40"/>
+      <c r="H6" s="21">
         <v>5</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="41">
         <f>H6*0.38</f>
         <v>1.9</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="23" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="24"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="39">
         <v>0.09</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="33">
+      <c r="G7" s="40"/>
+      <c r="H7" s="21">
         <v>5</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="41">
         <v>0.21</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="31" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="39">
         <v>0.1</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="33">
+      <c r="G8" s="40"/>
+      <c r="H8" s="21">
         <v>10</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="41">
         <f>H8*0.19</f>
         <v>1.9</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="31" t="s">
+      <c r="J8" s="42"/>
+      <c r="K8" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="33">
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="21">
         <v>4</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="41">
         <f>H9*2.85</f>
         <v>11.4</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="31" t="s">
+      <c r="J9" s="42"/>
+      <c r="K9" s="19" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="30"/>
-      <c r="G18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="29"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="30"/>
-      <c r="G19" s="20"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="29"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="30"/>
-      <c r="G20" s="20"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="29"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="30"/>
-      <c r="G21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="29"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F22" s="30"/>
-      <c r="G22" s="20"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="29"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F23" s="30"/>
-      <c r="G23" s="20"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="29"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F24" s="30"/>
-      <c r="G24" s="20"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="29"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F25" s="30"/>
-      <c r="G25" s="20"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="29"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F26" s="30"/>
-      <c r="G26" s="20"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="29"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F27" s="30"/>
-      <c r="G27" s="20"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="29"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F28" s="30"/>
-      <c r="G28" s="20"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="29"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F29" s="30"/>
-      <c r="G29" s="20"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="29"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F30" s="30"/>
-      <c r="G30" s="20"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="29"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F31" s="30"/>
-      <c r="G31" s="20"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="29"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F32" s="30"/>
-      <c r="G32" s="20"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="29"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="6:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F33" s="30"/>
-      <c r="G33" s="20"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="29"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="6:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="F34" s="30"/>
-      <c r="G34" s="20"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="29"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I21:J21"/>
@@ -3847,37 +3853,33 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K3:Q3"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
